--- a/Cryptojacking sites.xlsx
+++ b/Cryptojacking sites.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Minesweeper dataset" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tranco 1M" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="123">
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
@@ -34,12 +35,21 @@
     <t xml:space="preserve">Cryptonight algorithm detected</t>
   </si>
   <si>
-    <t xml:space="preserve">Wireshark traffic detected (TCP KEEP-ALIVE)</t>
+    <t xml:space="preserve">Wireshark traffic detected (package no.)</t>
   </si>
   <si>
     <t xml:space="preserve">Mining service</t>
   </si>
   <si>
+    <t xml:space="preserve">Mining payload origin IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining payload source URI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coin</t>
   </si>
   <si>
@@ -49,13 +59,34 @@
     <t xml:space="preserve">Positive</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (162, 170, 305, 1382)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coinhive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pencurimovie.xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">generic</t>
   </si>
   <si>
-    <t xml:space="preserve">pencurimovie.xyz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative</t>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain quit mining during research</t>
   </si>
   <si>
     <t xml:space="preserve">kta-kda.ucoz.ru</t>
@@ -67,6 +98,9 @@
     <t xml:space="preserve">coinimp</t>
   </si>
   <si>
+    <t xml:space="preserve">Monero/Webchain</t>
+  </si>
+  <si>
     <t xml:space="preserve">myjob.uz</t>
   </si>
   <si>
@@ -76,67 +110,286 @@
     <t xml:space="preserve">nastysnack.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Domain was token down!</t>
+  </si>
+  <si>
     <t xml:space="preserve">watchdigimonepisodes.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (2126)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethereum</t>
+  </si>
+  <si>
     <t xml:space="preserve">phonenews87.blogspot.be</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (867)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coinpot.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.20.65.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.751 (lat) / -97.822 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://coinpot.co/mine/bitcoincore/?ref=C8AC66B989F7&amp;mode=widget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitcoin/Dogecoin/Litecoin/Dash</t>
+  </si>
+  <si>
     <t xml:space="preserve">iptvsensei.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (1319)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.210.89.119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.7386 (lat) / 37.6068 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://rand.com.ru/</t>
+  </si>
+  <si>
     <t xml:space="preserve">buscoempresas.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (452)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167.99.45.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.352 (lat) / 4.9392 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gninimorenom.thefashiontip.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">replaytvstreaming.com</t>
   </si>
   <si>
     <t xml:space="preserve">caribbean360.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (2171)</t>
+  </si>
+  <si>
     <t xml:space="preserve">safeyourhealth.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (956)</t>
+  </si>
+  <si>
     <t xml:space="preserve">crisanimex.com</t>
   </si>
   <si>
     <t xml:space="preserve">jsecoin</t>
   </si>
   <si>
+    <t xml:space="preserve">JSEcoin</t>
+  </si>
+  <si>
     <t xml:space="preserve">night-shop.be</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (519)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.186.33.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8582 (lat) / 2.3387 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.night-shop.be/wp-content/plugins/simple-monero-miner-coin-hive/js-lib/smmch-own.js?v=1.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">300mbfilms.co</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (341)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.245.78.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lasimakiz.xyz/sadig6.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">hobby-country.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (4672)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2001.com.ve</t>
   </si>
   <si>
     <t xml:space="preserve">walking-dead.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Positive → Negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes (40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coinimp → WMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.27.167.202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webminepool.com/lib/base.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This domains swapped from coinimp to WMP during research</t>
+  </si>
+  <si>
     <t xml:space="preserve">chemikino.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (6103)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151.101.1.195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bittubeapp.com/tubepay/mymonero-core.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">givemejav.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (363)</t>
+  </si>
+  <si>
     <t xml:space="preserve">cryptoloot</t>
   </si>
   <si>
+    <t xml:space="preserve">104.27.165.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statdynamic.com/lib/crypta.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">instagrammi.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (1964)</t>
+  </si>
+  <si>
     <t xml:space="preserve">whatwouldyoudoif.se</t>
   </si>
   <si>
     <t xml:space="preserve">promoavon.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes (2027)</t>
+  </si>
+  <si>
     <t xml:space="preserve">marinegyaan.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireshark traffic detected (packages no.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garaanews.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEGATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes (372, 436, 476)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.202.168.123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.garaanews.com/js/jquery.min.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orquidariofeiticeira.com.br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes (320 – 336)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187.45.210.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22.8305 (lat) / -43.2192 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.orquidariofeiticeira.com.br/js/comum.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pornosins.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes ( 132, 155, 163)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptoloot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cutecatshq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8teenz.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webminepool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2606:4700:3034::681b:a7ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webminepool.com/lib/base.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WMCoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aljazair1.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.120.165.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2993 (lat) / 9.491 (long)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eth-pocket.de/perfekt/perfekt.js?perfekt=wss://eth-pocket.de:8585?jason=faster.etn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claimltc.win</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.190.24.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://load.jsecoin.com/load/151215/claimbtc.in/optionalSubID/0/</t>
   </si>
 </sst>
 </file>
@@ -146,11 +399,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,6 +420,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,8 +469,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -232,10 +499,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,7 +513,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,447 +543,861 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>68</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>8</v>
+        <v>71</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -723,4 +1409,295 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="36.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>